--- a/excel/vehicle_registration_FHWA.xlsx
+++ b/excel/vehicle_registration_FHWA.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louisa\Documents\GitHub\adopt-EV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louisa\Documents\GitHub\adopt-EV\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86ADA992-4FB9-415B-AC1A-86501EBB8D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C56DA0-AD6B-4B41-8869-AEC570655419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019 MV-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pickup_Truck_Sales_2019" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Pickup_Truck_Sales_2019!$A$2:$A$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Pickup_Truck_Sales_2019!$N$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Pickup_Truck_Sales_2019!$N$2:$N$14</definedName>
     <definedName name="Adjusted">#REF!</definedName>
     <definedName name="CTFEBS">#REF!</definedName>
     <definedName name="FINAL">#REF!</definedName>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -269,6 +273,96 @@
   <si>
     <t>% Trucks</t>
   </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Chevrolet Colorado</t>
+  </si>
+  <si>
+    <t>Chevrolet Silverado</t>
+  </si>
+  <si>
+    <t>Ford F-Series</t>
+  </si>
+  <si>
+    <t>Ford Ranger</t>
+  </si>
+  <si>
+    <t>GMC Canyon</t>
+  </si>
+  <si>
+    <t>GMC Sierra</t>
+  </si>
+  <si>
+    <t>Honda Ridgeline</t>
+  </si>
+  <si>
+    <t>Jeep Gladiator</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Nissan Frontier</t>
+  </si>
+  <si>
+    <t>Nissan Titan</t>
+  </si>
+  <si>
+    <t>Ram Pickup</t>
+  </si>
+  <si>
+    <t>Toyota Tacoma</t>
+  </si>
+  <si>
+    <t>Toyota Tundra</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Total Trucks - Ford Sales</t>
+  </si>
 </sst>
 </file>
 
@@ -282,7 +376,7 @@
     <numFmt numFmtId="166" formatCode="#,##0_);\(#,##0\);\—_)"/>
     <numFmt numFmtId="167" formatCode="0.0000_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="6"/>
       <name val="P-AVGARD"/>
@@ -337,16 +431,70 @@
       <sz val="10"/>
       <name val="P-AVGARD"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8E8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -863,6 +1011,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
@@ -871,7 +1094,7 @@
     <xf numFmtId="37" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="130">
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1074,6 +1297,37 @@
     </xf>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="12" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1291,6 +1545,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF081534"/>
+      <color rgb="FF2A6BAC"/>
+      <color rgb="FF133A7C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1300,6 +1561,5871 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ford</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Dominates Pickup Truck Sales 2019</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chevrolet Colorado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10413</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9580</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8391</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F41-4533-8CD7-C8694AFE369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chevrolet Silverado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>37603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57283</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47054</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55744</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F41-4533-8CD7-C8694AFE369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ford F-Series</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>70596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87670</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79886</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F41-4533-8CD7-C8694AFE369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ford Ranger</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7830</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8622</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7932</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10886</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5F41-4533-8CD7-C8694AFE369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GMC Canyon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3870</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4466</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5F41-4533-8CD7-C8694AFE369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GMC Sierra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21776</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24389</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20034</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22629</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23465</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5F41-4533-8CD7-C8694AFE369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Honda Ridgeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2327</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2647</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3297</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5F41-4533-8CD7-C8694AFE369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jeep Gladiator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4882</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5487</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5690</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5F41-4533-8CD7-C8694AFE369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nissan Frontier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3835</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5F41-4533-8CD7-C8694AFE369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nissan Titan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3031</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3930</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2134</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5F41-4533-8CD7-C8694AFE369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ram Pickup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>34889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59550</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58929</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-5F41-4533-8CD7-C8694AFE369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Toyota Tacoma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22832</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18330</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20727</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-5F41-4533-8CD7-C8694AFE369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Toyota Tundra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$B$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7590</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11088</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12427</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8050</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8081</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8816</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-5F41-4533-8CD7-C8694AFE369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="413546432"/>
+        <c:axId val="413552672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="413546432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413552672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413552672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413546432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2A6BAC"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Chevrolet Colorado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chevrolet Silverado</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ford F-Series</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ford Ranger</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GMC Canyon</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GMC Sierra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Honda Ridgeline</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jeep Gladiator</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nissan Frontier</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nissan Titan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ram Pickup</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Toyota Tacoma</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toyota Tundra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$N$2:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>121703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>575569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>896526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>633694</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>248801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83CA-4CCD-8A4E-2E662BDCF35E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="359279904"/>
+        <c:axId val="359275744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="359279904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="081534"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359275744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="359275744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="081534"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359279904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="081534"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="081534"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:srgbClr val="081534"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ford F-Series</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="081534"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Dominates 2019 Pickup Sales</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="081534"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="081534"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003E-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Chevrolet Colorado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chevrolet Silverado</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ford F-Series</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ford Ranger</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GMC Canyon</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GMC Sierra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Honda Ridgeline</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jeep Gladiator</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nissan Frontier</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nissan Titan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ram Pickup</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Toyota Tacoma</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toyota Tundra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$N$2:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>121703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>575569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>896526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>633694</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>248801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003D-D96C-4BD1-B35E-247EC3E01C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-D96C-4BD1-B35E-247EC3E01C0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Chevrolet Colorado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chevrolet Silverado</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ford F-Series</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ford Ranger</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GMC Canyon</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GMC Sierra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Honda Ridgeline</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jeep Gladiator</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nissan Frontier</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nissan Titan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ram Pickup</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Toyota Tacoma</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toyota Tundra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$N$2:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>121703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>575569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>896526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>633694</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>248801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003C-D96C-4BD1-B35E-247EC3E01C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="081534"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="081534"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:srgbClr val="081534"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ford F-Series</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="081534"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Dominates 2019 Pickup Sales</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="081534"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="081534"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="133A7C"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="133A7C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8748-4032-B3F6-72A7C67F3AB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="133A7C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8748-4032-B3F6-72A7C67F3AB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8748-4032-B3F6-72A7C67F3AB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="133A7C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8748-4032-B3F6-72A7C67F3AB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="133A7C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8748-4032-B3F6-72A7C67F3AB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="133A7C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8748-4032-B3F6-72A7C67F3AB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="133A7C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-8748-4032-B3F6-72A7C67F3AB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="133A7C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-8748-4032-B3F6-72A7C67F3AB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="133A7C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-8748-4032-B3F6-72A7C67F3AB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="133A7C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-8748-4032-B3F6-72A7C67F3AB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="133A7C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-8748-4032-B3F6-72A7C67F3AB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="133A7C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-8748-4032-B3F6-72A7C67F3AB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="133A7C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-8748-4032-B3F6-72A7C67F3AB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pickup_Truck_Sales_2019!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Chevrolet Colorado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chevrolet Silverado</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ford F-Series</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ford Ranger</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GMC Canyon</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GMC Sierra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Honda Ridgeline</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jeep Gladiator</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nissan Frontier</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nissan Titan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ram Pickup</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Toyota Tacoma</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toyota Tundra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pickup_Truck_Sales_2019!$N$2:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>121703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>575569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>896526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>633694</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>248801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-8748-4032-B3F6-72A7C67F3AB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="081534"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB2EAB21-9411-4C70-A9A3-12B0776FC411}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F2B8CB-CC65-4EE3-BFBC-98CFFDF69067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E6AAC4-111C-466A-80A9-5636387A0C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90266AA2-E1AF-4C7D-A846-3E996BC709FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1604,7 +7730,7 @@
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -5594,10 +11720,682 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6E9F03-664A-4981-BBE8-1730DF8DC9EB}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="121" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="11.83203125" style="121" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="121" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="121"/>
+    <col min="16" max="16" width="12.33203125" style="121" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.83203125" style="121" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="121"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A1" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="121" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A2" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="123">
+        <v>11018</v>
+      </c>
+      <c r="C2" s="123">
+        <v>10577</v>
+      </c>
+      <c r="D2" s="123">
+        <v>11899</v>
+      </c>
+      <c r="E2" s="123">
+        <v>10292</v>
+      </c>
+      <c r="F2" s="123">
+        <v>11876</v>
+      </c>
+      <c r="G2" s="123">
+        <v>9501</v>
+      </c>
+      <c r="H2" s="123">
+        <v>10413</v>
+      </c>
+      <c r="I2" s="123">
+        <v>11663</v>
+      </c>
+      <c r="J2" s="123">
+        <v>9580</v>
+      </c>
+      <c r="K2" s="123">
+        <v>8391</v>
+      </c>
+      <c r="L2" s="123">
+        <v>8102</v>
+      </c>
+      <c r="M2" s="123">
+        <v>8391</v>
+      </c>
+      <c r="N2" s="123">
+        <f>SUM(B2:M2)</f>
+        <v>121703</v>
+      </c>
+      <c r="P2" s="121">
+        <f>N4+N5</f>
+        <v>980097</v>
+      </c>
+      <c r="Q2" s="121">
+        <f>SUM(N2:N3,N6:N14)</f>
+        <v>2133846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A3" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="125">
+        <v>37603</v>
+      </c>
+      <c r="C3" s="125">
+        <v>36099</v>
+      </c>
+      <c r="D3" s="125">
+        <v>40611</v>
+      </c>
+      <c r="E3" s="125">
+        <v>46300</v>
+      </c>
+      <c r="F3" s="125">
+        <v>53424</v>
+      </c>
+      <c r="G3" s="125">
+        <v>42739</v>
+      </c>
+      <c r="H3" s="125">
+        <v>51145</v>
+      </c>
+      <c r="I3" s="125">
+        <v>57283</v>
+      </c>
+      <c r="J3" s="125">
+        <v>47054</v>
+      </c>
+      <c r="K3" s="125">
+        <v>53782</v>
+      </c>
+      <c r="L3" s="125">
+        <v>55744</v>
+      </c>
+      <c r="M3" s="125">
+        <v>53785</v>
+      </c>
+      <c r="N3" s="123">
+        <f t="shared" ref="N3:N14" si="0">SUM(B3:M3)</f>
+        <v>575569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A4" s="126" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="127">
+        <v>70596</v>
+      </c>
+      <c r="C4" s="127">
+        <v>67772</v>
+      </c>
+      <c r="D4" s="127">
+        <v>76243</v>
+      </c>
+      <c r="E4" s="127">
+        <v>75981</v>
+      </c>
+      <c r="F4" s="127">
+        <v>87670</v>
+      </c>
+      <c r="G4" s="127">
+        <v>70136</v>
+      </c>
+      <c r="H4" s="127">
+        <v>70453</v>
+      </c>
+      <c r="I4" s="127">
+        <v>78907</v>
+      </c>
+      <c r="J4" s="127">
+        <v>64816</v>
+      </c>
+      <c r="K4" s="127">
+        <v>77033</v>
+      </c>
+      <c r="L4" s="127">
+        <v>79886</v>
+      </c>
+      <c r="M4" s="127">
+        <v>77033</v>
+      </c>
+      <c r="N4" s="123">
+        <f t="shared" si="0"/>
+        <v>896526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A5" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="125">
+        <v>3099</v>
+      </c>
+      <c r="C5" s="125">
+        <v>2975</v>
+      </c>
+      <c r="D5" s="125">
+        <v>3347</v>
+      </c>
+      <c r="E5" s="125">
+        <v>6786</v>
+      </c>
+      <c r="F5" s="125">
+        <v>7830</v>
+      </c>
+      <c r="G5" s="125">
+        <v>264</v>
+      </c>
+      <c r="H5" s="125">
+        <v>8622</v>
+      </c>
+      <c r="I5" s="125">
+        <v>9657</v>
+      </c>
+      <c r="J5" s="125">
+        <v>7932</v>
+      </c>
+      <c r="K5" s="125">
+        <v>10886</v>
+      </c>
+      <c r="L5" s="125">
+        <v>11287</v>
+      </c>
+      <c r="M5" s="125">
+        <v>10886</v>
+      </c>
+      <c r="N5" s="123">
+        <f t="shared" si="0"/>
+        <v>83571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A6" s="126" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="127">
+        <v>2288</v>
+      </c>
+      <c r="C6" s="127">
+        <v>2196</v>
+      </c>
+      <c r="D6" s="127">
+        <v>2471</v>
+      </c>
+      <c r="E6" s="127">
+        <v>3870</v>
+      </c>
+      <c r="F6" s="127">
+        <v>4466</v>
+      </c>
+      <c r="G6" s="127">
+        <v>3573</v>
+      </c>
+      <c r="H6" s="127">
+        <v>2446</v>
+      </c>
+      <c r="I6" s="127">
+        <v>2740</v>
+      </c>
+      <c r="J6" s="127">
+        <v>2251</v>
+      </c>
+      <c r="K6" s="127">
+        <v>2149</v>
+      </c>
+      <c r="L6" s="127">
+        <v>2228</v>
+      </c>
+      <c r="M6" s="127">
+        <v>2148</v>
+      </c>
+      <c r="N6" s="123">
+        <f t="shared" si="0"/>
+        <v>32826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A7" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="125">
+        <v>13338</v>
+      </c>
+      <c r="C7" s="125">
+        <v>12804</v>
+      </c>
+      <c r="D7" s="125">
+        <v>14405</v>
+      </c>
+      <c r="E7" s="125">
+        <v>18478</v>
+      </c>
+      <c r="F7" s="125">
+        <v>21322</v>
+      </c>
+      <c r="G7" s="125">
+        <v>17057</v>
+      </c>
+      <c r="H7" s="125">
+        <v>21776</v>
+      </c>
+      <c r="I7" s="125">
+        <v>24389</v>
+      </c>
+      <c r="J7" s="125">
+        <v>20034</v>
+      </c>
+      <c r="K7" s="125">
+        <v>22629</v>
+      </c>
+      <c r="L7" s="125">
+        <v>23465</v>
+      </c>
+      <c r="M7" s="125">
+        <v>22628</v>
+      </c>
+      <c r="N7" s="123">
+        <f t="shared" si="0"/>
+        <v>232325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A8" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="127">
+        <v>1962</v>
+      </c>
+      <c r="C8" s="127">
+        <v>2186</v>
+      </c>
+      <c r="D8" s="127">
+        <v>2804</v>
+      </c>
+      <c r="E8" s="127">
+        <v>2654</v>
+      </c>
+      <c r="F8" s="127">
+        <v>2888</v>
+      </c>
+      <c r="G8" s="127">
+        <v>2761</v>
+      </c>
+      <c r="H8" s="127">
+        <v>2749</v>
+      </c>
+      <c r="I8" s="127">
+        <v>3302</v>
+      </c>
+      <c r="J8" s="127">
+        <v>2327</v>
+      </c>
+      <c r="K8" s="127">
+        <v>2647</v>
+      </c>
+      <c r="L8" s="127">
+        <v>3297</v>
+      </c>
+      <c r="M8" s="127">
+        <v>3757</v>
+      </c>
+      <c r="N8" s="123">
+        <f t="shared" si="0"/>
+        <v>33334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A9" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="125">
+        <v>70</v>
+      </c>
+      <c r="D9" s="125">
+        <v>43</v>
+      </c>
+      <c r="E9" s="125">
+        <v>314</v>
+      </c>
+      <c r="F9" s="125">
+        <v>2584</v>
+      </c>
+      <c r="G9" s="125">
+        <v>4231</v>
+      </c>
+      <c r="H9" s="125">
+        <v>5307</v>
+      </c>
+      <c r="I9" s="125">
+        <v>5943</v>
+      </c>
+      <c r="J9" s="125">
+        <v>4882</v>
+      </c>
+      <c r="K9" s="125">
+        <v>5487</v>
+      </c>
+      <c r="L9" s="125">
+        <v>5690</v>
+      </c>
+      <c r="M9" s="125">
+        <v>5487</v>
+      </c>
+      <c r="N9" s="123">
+        <f t="shared" si="0"/>
+        <v>40038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A10" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="127">
+        <v>6062</v>
+      </c>
+      <c r="C10" s="127">
+        <v>6291</v>
+      </c>
+      <c r="D10" s="127">
+        <v>7868</v>
+      </c>
+      <c r="E10" s="127">
+        <v>4258</v>
+      </c>
+      <c r="F10" s="127">
+        <v>7497</v>
+      </c>
+      <c r="G10" s="127">
+        <v>7346</v>
+      </c>
+      <c r="H10" s="127">
+        <v>5641</v>
+      </c>
+      <c r="I10" s="127">
+        <v>5888</v>
+      </c>
+      <c r="J10" s="127">
+        <v>3835</v>
+      </c>
+      <c r="K10" s="127">
+        <v>8031</v>
+      </c>
+      <c r="L10" s="127">
+        <v>4932</v>
+      </c>
+      <c r="M10" s="127">
+        <v>4720</v>
+      </c>
+      <c r="N10" s="123">
+        <f t="shared" si="0"/>
+        <v>72369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A11" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="125">
+        <v>3031</v>
+      </c>
+      <c r="C11" s="125">
+        <v>2722</v>
+      </c>
+      <c r="D11" s="125">
+        <v>3930</v>
+      </c>
+      <c r="E11" s="125">
+        <v>2489</v>
+      </c>
+      <c r="F11" s="125">
+        <v>3189</v>
+      </c>
+      <c r="G11" s="125">
+        <v>2665</v>
+      </c>
+      <c r="H11" s="125">
+        <v>2242</v>
+      </c>
+      <c r="I11" s="125">
+        <v>2589</v>
+      </c>
+      <c r="J11" s="125">
+        <v>2555</v>
+      </c>
+      <c r="K11" s="125">
+        <v>2134</v>
+      </c>
+      <c r="L11" s="125">
+        <v>2052</v>
+      </c>
+      <c r="M11" s="125">
+        <v>1916</v>
+      </c>
+      <c r="N11" s="123">
+        <f t="shared" si="0"/>
+        <v>31514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A12" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="127">
+        <v>34889</v>
+      </c>
+      <c r="C12" s="127">
+        <v>39950</v>
+      </c>
+      <c r="D12" s="127">
+        <v>45187</v>
+      </c>
+      <c r="E12" s="127">
+        <v>49106</v>
+      </c>
+      <c r="F12" s="127">
+        <v>62250</v>
+      </c>
+      <c r="G12" s="127">
+        <v>68098</v>
+      </c>
+      <c r="H12" s="127">
+        <v>53169</v>
+      </c>
+      <c r="I12" s="127">
+        <v>59550</v>
+      </c>
+      <c r="J12" s="127">
+        <v>48916</v>
+      </c>
+      <c r="K12" s="127">
+        <v>56825</v>
+      </c>
+      <c r="L12" s="127">
+        <v>58929</v>
+      </c>
+      <c r="M12" s="127">
+        <v>56825</v>
+      </c>
+      <c r="N12" s="123">
+        <f t="shared" si="0"/>
+        <v>633694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A13" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="125">
+        <v>16852</v>
+      </c>
+      <c r="C13" s="125">
+        <v>18533</v>
+      </c>
+      <c r="D13" s="125">
+        <v>22798</v>
+      </c>
+      <c r="E13" s="125">
+        <v>20375</v>
+      </c>
+      <c r="F13" s="125">
+        <v>22832</v>
+      </c>
+      <c r="G13" s="125">
+        <v>20476</v>
+      </c>
+      <c r="H13" s="125">
+        <v>20416</v>
+      </c>
+      <c r="I13" s="125">
+        <v>27010</v>
+      </c>
+      <c r="J13" s="125">
+        <v>18330</v>
+      </c>
+      <c r="K13" s="125">
+        <v>19725</v>
+      </c>
+      <c r="L13" s="125">
+        <v>20727</v>
+      </c>
+      <c r="M13" s="125">
+        <v>20727</v>
+      </c>
+      <c r="N13" s="123">
+        <f t="shared" si="0"/>
+        <v>248801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="13.8" thickBot="1">
+      <c r="A14" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="129">
+        <v>7159</v>
+      </c>
+      <c r="C14" s="129">
+        <v>7590</v>
+      </c>
+      <c r="D14" s="129">
+        <v>10351</v>
+      </c>
+      <c r="E14" s="129">
+        <v>8862</v>
+      </c>
+      <c r="F14" s="129">
+        <v>10657</v>
+      </c>
+      <c r="G14" s="129">
+        <v>9878</v>
+      </c>
+      <c r="H14" s="129">
+        <v>11088</v>
+      </c>
+      <c r="I14" s="129">
+        <v>12427</v>
+      </c>
+      <c r="J14" s="129">
+        <v>8050</v>
+      </c>
+      <c r="K14" s="129">
+        <v>8081</v>
+      </c>
+      <c r="L14" s="129">
+        <v>8816</v>
+      </c>
+      <c r="M14" s="129">
+        <v>8714</v>
+      </c>
+      <c r="N14" s="123">
+        <f t="shared" si="0"/>
+        <v>111673</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5715,19 +12513,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24E1E20F-CC53-49F6-9C20-8CFA33EF07AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3965985-BA04-478E-975F-CFC92DF343E2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5749,9 +12543,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3965985-BA04-478E-975F-CFC92DF343E2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24E1E20F-CC53-49F6-9C20-8CFA33EF07AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>